--- a/results_train_teste_comparison.xlsx
+++ b/results_train_teste_comparison.xlsx
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.9849253229370596</v>
+        <v>0.984608506290179</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9849932564379469</v>
+        <v>0.9846903222476125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9804184031827896</v>
+        <v>0.9809210733718782</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9849674597172339</v>
+        <v>0.9846431022658942</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9626666666666667</v>
+        <v>0.9623333333333335</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9719033545924551</v>
+        <v>0.9716847401593727</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9728819095477388</v>
+        <v>0.9733793969849247</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9576637270510971</v>
+        <v>0.9569273222548386</v>
       </c>
     </row>
     <row r="8">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9937294464497993</v>
+        <v>0.9944896217865825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9937687644711435</v>
+        <v>0.9945222285383734</v>
       </c>
       <c r="E8" t="n">
         <v>0.9913393819789033</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9937519407142625</v>
+        <v>0.9945187958487866</v>
       </c>
     </row>
     <row r="9">
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9773333333333334</v>
+        <v>0.9786666666666666</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9830441160679946</v>
+        <v>0.984041066022761</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9884547738693467</v>
+        <v>0.9884572864321608</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9719105552515049</v>
+        <v>0.9738870590576644</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9906259757543359</v>
+        <v>0.9898026297306778</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9906553411283152</v>
+        <v>0.9898293425042217</v>
       </c>
       <c r="E10" t="n">
-        <v>0.98468692269377</v>
+        <v>0.9835584761952798</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9906810572548134</v>
+        <v>0.9898612428468994</v>
       </c>
     </row>
     <row r="11">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9720000000000001</v>
+        <v>0.9730000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9791035252800475</v>
+        <v>0.9798255155494067</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9869472361809045</v>
+        <v>0.9869522613065327</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9647013408627296</v>
+        <v>0.966189001940395</v>
       </c>
     </row>
     <row r="12">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9944263306981445</v>
+        <v>0.9941730058089741</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9944582547301186</v>
+        <v>0.9942040814550781</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9910887562025937</v>
+        <v>0.9903359331160191</v>
       </c>
       <c r="F12" t="n">
-        <v>0.994457421579558</v>
+        <v>0.9942088872741222</v>
       </c>
     </row>
     <row r="13">
@@ -741,16 +741,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9716666666666667</v>
+        <v>0.9743333333333334</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9788845991903056</v>
+        <v>0.9808096693521848</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9874497487437187</v>
+        <v>0.9879522613065328</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9639525971441364</v>
+        <v>0.9676890019403951</v>
       </c>
     </row>
     <row r="14">
@@ -813,16 +813,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9914490809748673</v>
+        <v>0.9907522769942311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9914852580904846</v>
+        <v>0.9907895792241069</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9865692956627555</v>
+        <v>0.9856905291829283</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9914948564525572</v>
+        <v>0.9907996370784234</v>
       </c>
     </row>
     <row r="17">
@@ -837,16 +837,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.97</v>
+        <v>0.967</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9777217027754326</v>
+        <v>0.9755273473639179</v>
       </c>
       <c r="E17" t="n">
-        <v>0.989964824120603</v>
+        <v>0.9884572864321608</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9602645902781234</v>
+        <v>0.9565157719289518</v>
       </c>
     </row>
     <row r="18">

--- a/results_train_teste_comparison.xlsx
+++ b/results_train_teste_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9790983287460338</v>
+        <v>0.9771981111402752</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9788555233469953</v>
+        <v>0.9768971502262893</v>
       </c>
       <c r="E2" t="n">
-        <v>0.959209157456038</v>
+        <v>0.9556945644155533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9792849672919071</v>
+        <v>0.977399793533813</v>
       </c>
     </row>
     <row r="3">
@@ -501,22 +501,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9426666666666665</v>
+        <v>0.9413333333333332</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9564998657845152</v>
+        <v>0.9553677678527877</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9508065326633165</v>
+        <v>0.9472964824120602</v>
       </c>
       <c r="F3" t="n">
-        <v>0.938715147519777</v>
+        <v>0.9384353699189013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -525,22 +525,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9680138798922165</v>
+        <v>0.9740311085532468</v>
       </c>
       <c r="D4" t="n">
-        <v>0.96732658796772</v>
+        <v>0.9738583643851102</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9386230083920226</v>
+        <v>0.9588300662660858</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9682884862931982</v>
+        <v>0.974173291258882</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SVM</t>
+          <t>Decision Tree</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -549,22 +549,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9479999999999998</v>
+        <v>0.9573333333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9616616204033767</v>
+        <v>0.9678209868583636</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9809246231155779</v>
+        <v>0.9648693467336684</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9319128066072938</v>
+        <v>0.9536821981193094</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -573,22 +573,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.984608506290179</v>
+        <v>0.9588928193310329</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9846903222476125</v>
+        <v>0.9577736898393981</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9809210733718782</v>
+        <v>0.9240614931621721</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9846431022658942</v>
+        <v>0.9592181822750041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Decision Tree</t>
+          <t>Random Forest</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9623333333333335</v>
+        <v>0.9533333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9716847401593727</v>
+        <v>0.9650700121807686</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9733793969849247</v>
+        <v>0.969889447236181</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9569273222548386</v>
+        <v>0.9452467038161103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -621,22 +621,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9944896217865825</v>
+        <v>0.9932859272244791</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9945222285383734</v>
+        <v>0.9933222087667615</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9913393819789033</v>
+        <v>0.9900829429455937</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9945187958487866</v>
+        <v>0.993315455395868</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LVQ</t>
+          <t>XGBoost</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -645,22 +645,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.9786666666666666</v>
+        <v>0.9770000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>0.984041066022761</v>
+        <v>0.9828055418116248</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9884572864321608</v>
+        <v>0.9884522613065327</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9738870590576644</v>
+        <v>0.9714241504552465</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -669,22 +669,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9898026297306778</v>
+        <v>0.9930957730221837</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9898293425042217</v>
+        <v>0.993129827244729</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9835584761952798</v>
+        <v>0.9893294893539215</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9898612428468994</v>
+        <v>0.9931304627982922</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MLP</t>
+          <t>LightGBM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -693,256 +693,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.9730000000000001</v>
+        <v>0.9773333333333334</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9798255155494067</v>
+        <v>0.9829783548802012</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9869522613065327</v>
+        <v>0.9859396984924624</v>
       </c>
       <c r="F11" t="n">
-        <v>0.966189001940395</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Ensemble Neural Network</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Treinamento</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9941730058089741</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.9942040814550781</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9903359331160191</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.9942088872741222</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Ensemble Neural Network</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9743333333333334</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.9808096693521848</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.9879522613065328</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.9676890019403951</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Stacking</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Treinamento</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.8866866372726318</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.8892360896527179</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.9029748806769102</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.8865323361911823</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Stacking</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9216666666666666</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9419945858913689</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.9573316582914574</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.9042549380566196</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Treinamento</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9907522769942311</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.9907895792241069</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9856905291829283</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.9907996370784234</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Random Forest</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.967</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.9755273473639179</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9884572864321608</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.9565157719289518</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Treinamento</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9908156082165238</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.99084506975036</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.9853128566294458</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.9908665552773854</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>XGBoost</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9776666666666667</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.9832672740365311</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9874497487437186</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9728931912035425</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LightGBM</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Treinamento</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9457183197399969</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.9441803422710482</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9101309559087787</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9460520108317416</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LightGBM</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Teste</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9526666666666668</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.9646263615263047</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.971894472361809</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9432838698442708</v>
+        <v>0.9731381660779143</v>
       </c>
     </row>
   </sheetData>
